--- a/ExcelExamples/EPE.xlsx
+++ b/ExcelExamples/EPE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="Product&amp;EPE" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>QSA.CreateHWModelDemo</t>
   </si>
   <si>
-    <t>JIBAR3M</t>
-  </si>
-  <si>
     <t>Swap0001</t>
   </si>
   <si>
@@ -105,6 +102,12 @@
   </si>
   <si>
     <t>QSA.EPE</t>
+  </si>
+  <si>
+    <t>ZAR.JIBAR.3M</t>
+  </si>
+  <si>
+    <t>jibar</t>
   </si>
 </sst>
 </file>
@@ -263,7 +266,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Product&amp;EPE'!$B$23:$B$144</c:f>
+              <c:f>'Product&amp;EPE'!$B$24:$B$145</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="122"/>
@@ -638,375 +641,375 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Product&amp;EPE'!$C$23:$C$144</c:f>
+              <c:f>'Product&amp;EPE'!$C$24:$C$145</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="122"/>
                 <c:pt idx="0">
-                  <c:v>1972.9411030138363</c:v>
+                  <c:v>1911.0571614206256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3619.5871756919601</c:v>
+                  <c:v>3339.9260800415418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4451.2813584879596</c:v>
+                  <c:v>4121.2209968031539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5085.3807442868338</c:v>
+                  <c:v>4957.404370530664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5640.1662542800768</c:v>
+                  <c:v>5426.5275511333448</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6067.3211633161318</c:v>
+                  <c:v>5958.4311006726584</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6572.4761801583882</c:v>
+                  <c:v>6409.2182861113779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6987.0685412624252</c:v>
+                  <c:v>6845.8465821929994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7293.7645081786541</c:v>
+                  <c:v>7295.2000765184539</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7673.3604404413281</c:v>
+                  <c:v>7683.6413954550681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8026.4932114970397</c:v>
+                  <c:v>7985.9762355213534</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8335.557171443621</c:v>
+                  <c:v>8223.1168730894678</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8570.7853374160059</c:v>
+                  <c:v>8396.7062141034767</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8908.8354937770418</c:v>
+                  <c:v>8542.4341886630955</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9237.5755151324029</c:v>
+                  <c:v>8971.5360541390619</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9472.1894041174419</c:v>
+                  <c:v>9305.8507712336905</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9662.880457748799</c:v>
+                  <c:v>9493.4914084809716</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9901.7863638275721</c:v>
+                  <c:v>9453.5812557109512</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10072.022467774104</c:v>
+                  <c:v>9834.0001261282814</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10341.994780873169</c:v>
+                  <c:v>10084.712790105577</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10593.239752354855</c:v>
+                  <c:v>10220.388374502425</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10798.363691004695</c:v>
+                  <c:v>10658.202550807651</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10985.282343770061</c:v>
+                  <c:v>10813.302881583601</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11091.125722886503</c:v>
+                  <c:v>10994.357728988465</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11451.34034841641</c:v>
+                  <c:v>11257.393781048258</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11695.610925831052</c:v>
+                  <c:v>11498.561476646466</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11880.375123504195</c:v>
+                  <c:v>11724.763701059239</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12044.135676590864</c:v>
+                  <c:v>11898.015098295371</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12157.495642845128</c:v>
+                  <c:v>12054.04439425292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12370.756918837333</c:v>
+                  <c:v>12216.210454544016</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12623.626356357663</c:v>
+                  <c:v>12497.771426662543</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11983.789296201865</c:v>
+                  <c:v>11904.885469500918</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12109.367630137331</c:v>
+                  <c:v>12013.321194563618</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12270.227411109827</c:v>
+                  <c:v>12121.039057383075</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12364.363613990849</c:v>
+                  <c:v>12288.43416746127</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12492.938121314915</c:v>
+                  <c:v>12410.261098715846</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12739.46170496909</c:v>
+                  <c:v>12563.376407693062</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12073.793840031081</c:v>
+                  <c:v>11862.178360232387</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12228.08221684877</c:v>
+                  <c:v>12006.598545108884</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12337.545272380379</c:v>
+                  <c:v>12075.395436895904</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12422.890783649658</c:v>
+                  <c:v>12351.648739532093</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12612.06151675368</c:v>
+                  <c:v>12363.161631602436</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12749.179199386645</c:v>
+                  <c:v>12539.425375395354</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11944.039197569469</c:v>
+                  <c:v>11840.494769440154</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12084.150979197091</c:v>
+                  <c:v>11984.304792254099</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12155.528987559432</c:v>
+                  <c:v>12061.063961609296</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12258.553162228609</c:v>
+                  <c:v>12184.096127229104</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12368.793949847042</c:v>
+                  <c:v>12341.959219910053</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12496.367876387158</c:v>
+                  <c:v>12435.748583551062</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11616.506933882996</c:v>
+                  <c:v>11558.542551456854</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11716.188148350688</c:v>
+                  <c:v>11635.210843576368</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11822.336734286266</c:v>
+                  <c:v>11690.001165431731</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11950.347736769836</c:v>
+                  <c:v>11864.257143047293</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12060.930401491189</c:v>
+                  <c:v>11865.307215790121</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12166.570080564979</c:v>
+                  <c:v>11988.386614409363</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11204.400561626604</c:v>
+                  <c:v>10996.277362495244</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>11296.11037354827</c:v>
+                  <c:v>11084.237386479195</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11372.562361280779</c:v>
+                  <c:v>11192.037243977116</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>11483.300868129074</c:v>
+                  <c:v>11220.514307706244</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>11601.383573220008</c:v>
+                  <c:v>11376.657356269514</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>11720.222399617285</c:v>
+                  <c:v>11434.436130709464</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10759.181445591241</c:v>
+                  <c:v>10480.916448295442</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10832.059608556285</c:v>
+                  <c:v>10584.422654628686</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10922.726978327464</c:v>
+                  <c:v>10652.582273759301</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>11006.113300124776</c:v>
+                  <c:v>10721.547732623478</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>11097.275603491544</c:v>
+                  <c:v>10751.712246558222</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>11167.97159448027</c:v>
+                  <c:v>10798.338838899241</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10099.953686842347</c:v>
+                  <c:v>9731.2302754336779</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10195.189293994059</c:v>
+                  <c:v>9832.1780312751853</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10257.13154989935</c:v>
+                  <c:v>9875.0542816005636</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10308.108556590167</c:v>
+                  <c:v>9920.7159827126288</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10371.658296174448</c:v>
+                  <c:v>9985.3497484302734</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10434.350392149172</c:v>
+                  <c:v>10025.006974193535</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9341.3527645135237</c:v>
+                  <c:v>8992.0029195026273</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9393.9486618169449</c:v>
+                  <c:v>9033.3971636012266</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9450.6811269883401</c:v>
+                  <c:v>9078.0298892165101</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9506.4098473993199</c:v>
+                  <c:v>9135.5383282758721</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9561.1134940095908</c:v>
+                  <c:v>9152.5340991057419</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9617.2796584632342</c:v>
+                  <c:v>9202.1192548867166</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9669.9374144549183</c:v>
+                  <c:v>9240.5522821025752</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8557.5617940236953</c:v>
+                  <c:v>8082.1687969458326</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8597.2985725366107</c:v>
+                  <c:v>8135.0609589689866</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8636.5673376261966</c:v>
+                  <c:v>8160.0905235181135</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8679.3820590264659</c:v>
+                  <c:v>8185.3961271606649</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8710.5553275939856</c:v>
+                  <c:v>8251.6284200000846</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8756.0496240582306</c:v>
+                  <c:v>8299.6368797911928</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7636.9084026198152</c:v>
+                  <c:v>7137.0774842943219</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7668.1635986464726</c:v>
+                  <c:v>7167.4932205749419</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7692.2731814856988</c:v>
+                  <c:v>7188.7789242267354</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7717.3185554426982</c:v>
+                  <c:v>7215.7728182168257</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7742.808903957145</c:v>
+                  <c:v>7260.9307071675721</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7781.6663720147517</c:v>
+                  <c:v>7283.2416380928171</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6590.2178762110707</c:v>
+                  <c:v>6071.5448824129026</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6615.546228180925</c:v>
+                  <c:v>6089.0290148367994</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6640.2007241489282</c:v>
+                  <c:v>6094.1743549532248</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6665.5707188789729</c:v>
+                  <c:v>6109.6923692858118</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6701.1440617482003</c:v>
+                  <c:v>6130.0405644419316</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6727.4413537023638</c:v>
+                  <c:v>6145.1865460115905</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5509.8516849750276</c:v>
+                  <c:v>4925.1841088800747</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5522.8805090898741</c:v>
+                  <c:v>4934.8415444641214</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5536.8094700984466</c:v>
+                  <c:v>4958.4307774764002</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5545.0097258534888</c:v>
+                  <c:v>4967.1381009125716</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5556.3302206718799</c:v>
+                  <c:v>4983.481075139428</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5578.4261664921059</c:v>
+                  <c:v>5003.2344426593036</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4366.5831729048987</c:v>
+                  <c:v>3768.3455998669274</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4380.5099978646376</c:v>
+                  <c:v>3774.2158574825571</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4387.2051011782005</c:v>
+                  <c:v>3784.0259855485588</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4391.6699068408816</c:v>
+                  <c:v>3791.8909498651415</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4402.1489912759453</c:v>
+                  <c:v>3805.5201725748489</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4421.3939836297441</c:v>
+                  <c:v>3811.80192734</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3215.6659565577547</c:v>
+                  <c:v>2590.0283733724359</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3217.8022071942387</c:v>
+                  <c:v>2590.11159574984</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3220.5670506764732</c:v>
+                  <c:v>2590.4807231810851</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3225.7879913325369</c:v>
+                  <c:v>2590.9138036287477</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3233.0733411677161</c:v>
+                  <c:v>2590.0074762681829</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3236.3448414148738</c:v>
+                  <c:v>2589.6291159557632</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1964.5596071714863</c:v>
+                  <c:v>1313.6233734992313</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1953.5649257090718</c:v>
+                  <c:v>1306.4349546413025</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1945.3284561957632</c:v>
+                  <c:v>1299.3969859380454</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1939.1454078403301</c:v>
+                  <c:v>1291.7197761686364</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1930.2800502392574</c:v>
+                  <c:v>1283.9751288968894</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1922.1870137945496</c:v>
+                  <c:v>1277.3530747563336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,11 +1026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="402520320"/>
-        <c:axId val="408809472"/>
+        <c:axId val="344923520"/>
+        <c:axId val="206455936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="402520320"/>
+        <c:axId val="344923520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,14 +1040,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="408809472"/>
+        <c:crossAx val="206455936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="408809472"/>
+        <c:axId val="206455936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402520320"/>
+        <c:crossAx val="344923520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,7 +1092,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1401,1275 +1404,1289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F144"/>
+  <dimension ref="B2:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7">
         <v>42675</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7">
         <v>42675</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="9">
         <v>1000000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="9">
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="str">
+        <f>_xll.QSA.CreateZARSwap(C2,C3,C4,C5,C6,C7,C8)</f>
+        <v>Swap0001.20:05:43-32</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f>_xll.QSA.CreateZARSwap(F2,F3,F4,F5,F6,F7,F8)</f>
+        <v>Swap0002.20:05:43-31</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="str">
-        <f>_xll.QSA.CreateZARSwap(C2,C3,C4,C5,C6,C7)</f>
-        <v>Swap0001.08:27:53-1</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f>_xll.QSA.CreateZARSwap(F2,F3,F4,F5,F6,F7)</f>
-        <v>Swap0002.08:27:53-2</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="str">
-        <f>B10</f>
-        <v>Swap0001.08:27:53-1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="str">
-        <f>E10</f>
-        <v>Swap0002.08:27:53-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="10">
+        <f>B11</f>
+        <v>Swap0001.20:05:43-32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="str">
+        <f>E11</f>
+        <v>Swap0002.20:05:43-31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10">
         <f>Model!F6</f>
         <v>42675</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f>Model!B9</f>
+        <v>HWDemo.20:05:43-34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6" t="str">
-        <f>Model!B9</f>
-        <v>HWDemo.08:27:53-4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
-        <f>C17</f>
+    </row>
+    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <f>C18</f>
         <v>42675</v>
       </c>
-      <c r="C23" s="11">
-        <f t="array" ref="C23:C144">_xll.QSA.EPE(C14:C15,C17,B23:B144,C18,C19)</f>
-        <v>1972.9411030138363</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
-        <f>B23+15</f>
+      <c r="C24" s="11">
+        <f t="array" ref="C24:C145">_xll.QSA.EPE(C15:C16,C18,B24:B145,C19,C20)</f>
+        <v>1911.0571614206256</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <f>B24+15</f>
         <v>42690</v>
       </c>
-      <c r="C24" s="11">
-        <v>3619.5871756919601</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
-        <f t="shared" ref="B25:B88" si="0">B24+15</f>
+      <c r="C25" s="11">
+        <v>3339.9260800415418</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <f t="shared" ref="B26:B89" si="0">B25+15</f>
         <v>42705</v>
       </c>
-      <c r="C25" s="11">
-        <v>4451.2813584879596</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+      <c r="C26" s="11">
+        <v>4121.2209968031539</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
         <f t="shared" si="0"/>
         <v>42720</v>
       </c>
-      <c r="C26" s="11">
-        <v>5085.3807442868338</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
+      <c r="C27" s="11">
+        <v>4957.404370530664</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
         <f t="shared" si="0"/>
         <v>42735</v>
       </c>
-      <c r="C27" s="11">
-        <v>5640.1662542800768</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
+      <c r="C28" s="11">
+        <v>5426.5275511333448</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
         <f t="shared" si="0"/>
         <v>42750</v>
       </c>
-      <c r="C28" s="11">
-        <v>6067.3211633161318</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
+      <c r="C29" s="11">
+        <v>5958.4311006726584</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
         <f t="shared" si="0"/>
         <v>42765</v>
       </c>
-      <c r="C29" s="11">
-        <v>6572.4761801583882</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+      <c r="C30" s="11">
+        <v>6409.2182861113779</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
         <f t="shared" si="0"/>
         <v>42780</v>
       </c>
-      <c r="C30" s="11">
-        <v>6987.0685412624252</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
+      <c r="C31" s="11">
+        <v>6845.8465821929994</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="7">
         <f t="shared" si="0"/>
         <v>42795</v>
       </c>
-      <c r="C31" s="11">
-        <v>7293.7645081786541</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
+      <c r="C32" s="11">
+        <v>7295.2000765184539</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
         <f t="shared" si="0"/>
         <v>42810</v>
       </c>
-      <c r="C32" s="11">
-        <v>7673.3604404413281</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
+      <c r="C33" s="11">
+        <v>7683.6413954550681</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
         <f t="shared" si="0"/>
         <v>42825</v>
       </c>
-      <c r="C33" s="11">
-        <v>8026.4932114970397</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
+      <c r="C34" s="11">
+        <v>7985.9762355213534</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
         <f t="shared" si="0"/>
         <v>42840</v>
       </c>
-      <c r="C34" s="11">
-        <v>8335.557171443621</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
+      <c r="C35" s="11">
+        <v>8223.1168730894678</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
         <f t="shared" si="0"/>
         <v>42855</v>
       </c>
-      <c r="C35" s="11">
-        <v>8570.7853374160059</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="7">
+      <c r="C36" s="11">
+        <v>8396.7062141034767</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="7">
         <f t="shared" si="0"/>
         <v>42870</v>
       </c>
-      <c r="C36" s="11">
-        <v>8908.8354937770418</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="7">
+      <c r="C37" s="11">
+        <v>8542.4341886630955</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
         <f t="shared" si="0"/>
         <v>42885</v>
       </c>
-      <c r="C37" s="11">
-        <v>9237.5755151324029</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="7">
+      <c r="C38" s="11">
+        <v>8971.5360541390619</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="7">
         <f t="shared" si="0"/>
         <v>42900</v>
       </c>
-      <c r="C38" s="11">
-        <v>9472.1894041174419</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="7">
+      <c r="C39" s="11">
+        <v>9305.8507712336905</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="7">
         <f t="shared" si="0"/>
         <v>42915</v>
       </c>
-      <c r="C39" s="11">
-        <v>9662.880457748799</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="7">
+      <c r="C40" s="11">
+        <v>9493.4914084809716</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="7">
         <f t="shared" si="0"/>
         <v>42930</v>
       </c>
-      <c r="C40" s="11">
-        <v>9901.7863638275721</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="7">
+      <c r="C41" s="11">
+        <v>9453.5812557109512</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="7">
         <f t="shared" si="0"/>
         <v>42945</v>
       </c>
-      <c r="C41" s="11">
-        <v>10072.022467774104</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="7">
+      <c r="C42" s="11">
+        <v>9834.0001261282814</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="7">
         <f t="shared" si="0"/>
         <v>42960</v>
       </c>
-      <c r="C42" s="11">
-        <v>10341.994780873169</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="7">
+      <c r="C43" s="11">
+        <v>10084.712790105577</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="7">
         <f t="shared" si="0"/>
         <v>42975</v>
       </c>
-      <c r="C43" s="11">
-        <v>10593.239752354855</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="7">
+      <c r="C44" s="11">
+        <v>10220.388374502425</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="7">
         <f t="shared" si="0"/>
         <v>42990</v>
       </c>
-      <c r="C44" s="11">
-        <v>10798.363691004695</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="7">
+      <c r="C45" s="11">
+        <v>10658.202550807651</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="7">
         <f t="shared" si="0"/>
         <v>43005</v>
       </c>
-      <c r="C45" s="11">
-        <v>10985.282343770061</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
+      <c r="C46" s="11">
+        <v>10813.302881583601</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="7">
         <f t="shared" si="0"/>
         <v>43020</v>
       </c>
-      <c r="C46" s="11">
-        <v>11091.125722886503</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
+      <c r="C47" s="11">
+        <v>10994.357728988465</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="7">
         <f t="shared" si="0"/>
         <v>43035</v>
       </c>
-      <c r="C47" s="11">
-        <v>11451.34034841641</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="7">
+      <c r="C48" s="11">
+        <v>11257.393781048258</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="7">
         <f t="shared" si="0"/>
         <v>43050</v>
       </c>
-      <c r="C48" s="11">
-        <v>11695.610925831052</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="7">
+      <c r="C49" s="11">
+        <v>11498.561476646466</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="7">
         <f t="shared" si="0"/>
         <v>43065</v>
       </c>
-      <c r="C49" s="11">
-        <v>11880.375123504195</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="7">
+      <c r="C50" s="11">
+        <v>11724.763701059239</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="7">
         <f t="shared" si="0"/>
         <v>43080</v>
       </c>
-      <c r="C50" s="11">
-        <v>12044.135676590864</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="7">
+      <c r="C51" s="11">
+        <v>11898.015098295371</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="7">
         <f t="shared" si="0"/>
         <v>43095</v>
       </c>
-      <c r="C51" s="11">
-        <v>12157.495642845128</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="7">
+      <c r="C52" s="11">
+        <v>12054.04439425292</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="7">
         <f t="shared" si="0"/>
         <v>43110</v>
       </c>
-      <c r="C52" s="11">
-        <v>12370.756918837333</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="7">
+      <c r="C53" s="11">
+        <v>12216.210454544016</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="7">
         <f t="shared" si="0"/>
         <v>43125</v>
       </c>
-      <c r="C53" s="11">
-        <v>12623.626356357663</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="7">
+      <c r="C54" s="11">
+        <v>12497.771426662543</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="7">
         <f t="shared" si="0"/>
         <v>43140</v>
       </c>
-      <c r="C54" s="11">
-        <v>11983.789296201865</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="7">
+      <c r="C55" s="11">
+        <v>11904.885469500918</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="7">
         <f t="shared" si="0"/>
         <v>43155</v>
       </c>
-      <c r="C55" s="11">
-        <v>12109.367630137331</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="7">
+      <c r="C56" s="11">
+        <v>12013.321194563618</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="7">
         <f t="shared" si="0"/>
         <v>43170</v>
       </c>
-      <c r="C56" s="11">
-        <v>12270.227411109827</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="7">
+      <c r="C57" s="11">
+        <v>12121.039057383075</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="7">
         <f t="shared" si="0"/>
         <v>43185</v>
       </c>
-      <c r="C57" s="11">
-        <v>12364.363613990849</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="7">
+      <c r="C58" s="11">
+        <v>12288.43416746127</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="7">
         <f t="shared" si="0"/>
         <v>43200</v>
       </c>
-      <c r="C58" s="11">
-        <v>12492.938121314915</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="7">
+      <c r="C59" s="11">
+        <v>12410.261098715846</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="7">
         <f t="shared" si="0"/>
         <v>43215</v>
       </c>
-      <c r="C59" s="11">
-        <v>12739.46170496909</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="7">
+      <c r="C60" s="11">
+        <v>12563.376407693062</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>43230</v>
       </c>
-      <c r="C60" s="11">
-        <v>12073.793840031081</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="7">
+      <c r="C61" s="11">
+        <v>11862.178360232387</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="7">
         <f t="shared" si="0"/>
         <v>43245</v>
       </c>
-      <c r="C61" s="11">
-        <v>12228.08221684877</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="7">
+      <c r="C62" s="11">
+        <v>12006.598545108884</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="7">
         <f t="shared" si="0"/>
         <v>43260</v>
       </c>
-      <c r="C62" s="11">
-        <v>12337.545272380379</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="7">
+      <c r="C63" s="11">
+        <v>12075.395436895904</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="7">
         <f t="shared" si="0"/>
         <v>43275</v>
       </c>
-      <c r="C63" s="11">
-        <v>12422.890783649658</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="7">
+      <c r="C64" s="11">
+        <v>12351.648739532093</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="7">
         <f t="shared" si="0"/>
         <v>43290</v>
       </c>
-      <c r="C64" s="11">
-        <v>12612.06151675368</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="7">
+      <c r="C65" s="11">
+        <v>12363.161631602436</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="7">
         <f t="shared" si="0"/>
         <v>43305</v>
       </c>
-      <c r="C65" s="11">
-        <v>12749.179199386645</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="7">
+      <c r="C66" s="11">
+        <v>12539.425375395354</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="7">
         <f t="shared" si="0"/>
         <v>43320</v>
       </c>
-      <c r="C66" s="11">
-        <v>11944.039197569469</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="7">
+      <c r="C67" s="11">
+        <v>11840.494769440154</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="7">
         <f t="shared" si="0"/>
         <v>43335</v>
       </c>
-      <c r="C67" s="11">
-        <v>12084.150979197091</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="7">
+      <c r="C68" s="11">
+        <v>11984.304792254099</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="7">
         <f t="shared" si="0"/>
         <v>43350</v>
       </c>
-      <c r="C68" s="11">
-        <v>12155.528987559432</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="7">
+      <c r="C69" s="11">
+        <v>12061.063961609296</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="7">
         <f t="shared" si="0"/>
         <v>43365</v>
       </c>
-      <c r="C69" s="11">
-        <v>12258.553162228609</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="7">
+      <c r="C70" s="11">
+        <v>12184.096127229104</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="7">
         <f t="shared" si="0"/>
         <v>43380</v>
       </c>
-      <c r="C70" s="11">
-        <v>12368.793949847042</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="7">
+      <c r="C71" s="11">
+        <v>12341.959219910053</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="7">
         <f t="shared" si="0"/>
         <v>43395</v>
       </c>
-      <c r="C71" s="11">
-        <v>12496.367876387158</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="7">
+      <c r="C72" s="11">
+        <v>12435.748583551062</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="7">
         <f t="shared" si="0"/>
         <v>43410</v>
       </c>
-      <c r="C72" s="11">
-        <v>11616.506933882996</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="7">
+      <c r="C73" s="11">
+        <v>11558.542551456854</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="7">
         <f t="shared" si="0"/>
         <v>43425</v>
       </c>
-      <c r="C73" s="11">
-        <v>11716.188148350688</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="7">
+      <c r="C74" s="11">
+        <v>11635.210843576368</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="7">
         <f t="shared" si="0"/>
         <v>43440</v>
       </c>
-      <c r="C74" s="11">
-        <v>11822.336734286266</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="7">
+      <c r="C75" s="11">
+        <v>11690.001165431731</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="7">
         <f t="shared" si="0"/>
         <v>43455</v>
       </c>
-      <c r="C75" s="11">
-        <v>11950.347736769836</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="7">
+      <c r="C76" s="11">
+        <v>11864.257143047293</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="7">
         <f t="shared" si="0"/>
         <v>43470</v>
       </c>
-      <c r="C76" s="11">
-        <v>12060.930401491189</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="7">
+      <c r="C77" s="11">
+        <v>11865.307215790121</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="7">
         <f t="shared" si="0"/>
         <v>43485</v>
       </c>
-      <c r="C77" s="11">
-        <v>12166.570080564979</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="7">
+      <c r="C78" s="11">
+        <v>11988.386614409363</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="7">
         <f t="shared" si="0"/>
         <v>43500</v>
       </c>
-      <c r="C78" s="11">
-        <v>11204.400561626604</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="7">
+      <c r="C79" s="11">
+        <v>10996.277362495244</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="7">
         <f t="shared" si="0"/>
         <v>43515</v>
       </c>
-      <c r="C79" s="11">
-        <v>11296.11037354827</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="7">
+      <c r="C80" s="11">
+        <v>11084.237386479195</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="7">
         <f t="shared" si="0"/>
         <v>43530</v>
       </c>
-      <c r="C80" s="11">
-        <v>11372.562361280779</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="7">
+      <c r="C81" s="11">
+        <v>11192.037243977116</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="7">
         <f t="shared" si="0"/>
         <v>43545</v>
       </c>
-      <c r="C81" s="11">
-        <v>11483.300868129074</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="7">
+      <c r="C82" s="11">
+        <v>11220.514307706244</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="7">
         <f t="shared" si="0"/>
         <v>43560</v>
       </c>
-      <c r="C82" s="11">
-        <v>11601.383573220008</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="7">
+      <c r="C83" s="11">
+        <v>11376.657356269514</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="7">
         <f t="shared" si="0"/>
         <v>43575</v>
       </c>
-      <c r="C83" s="11">
-        <v>11720.222399617285</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="7">
+      <c r="C84" s="11">
+        <v>11434.436130709464</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="7">
         <f t="shared" si="0"/>
         <v>43590</v>
       </c>
-      <c r="C84" s="11">
-        <v>10759.181445591241</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="7">
+      <c r="C85" s="11">
+        <v>10480.916448295442</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="7">
         <f t="shared" si="0"/>
         <v>43605</v>
       </c>
-      <c r="C85" s="11">
-        <v>10832.059608556285</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="7">
+      <c r="C86" s="11">
+        <v>10584.422654628686</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="7">
         <f t="shared" si="0"/>
         <v>43620</v>
       </c>
-      <c r="C86" s="11">
-        <v>10922.726978327464</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="7">
+      <c r="C87" s="11">
+        <v>10652.582273759301</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="7">
         <f t="shared" si="0"/>
         <v>43635</v>
       </c>
-      <c r="C87" s="11">
-        <v>11006.113300124776</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="7">
+      <c r="C88" s="11">
+        <v>10721.547732623478</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="7">
         <f t="shared" si="0"/>
         <v>43650</v>
       </c>
-      <c r="C88" s="11">
-        <v>11097.275603491544</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="7">
-        <f t="shared" ref="B89:B144" si="1">B88+15</f>
+      <c r="C89" s="11">
+        <v>10751.712246558222</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="7">
+        <f t="shared" ref="B90:B145" si="1">B89+15</f>
         <v>43665</v>
       </c>
-      <c r="C89" s="11">
-        <v>11167.97159448027</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="7">
+      <c r="C90" s="11">
+        <v>10798.338838899241</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="7">
         <f t="shared" si="1"/>
         <v>43680</v>
       </c>
-      <c r="C90" s="11">
-        <v>10099.953686842347</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="7">
+      <c r="C91" s="11">
+        <v>9731.2302754336779</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="7">
         <f t="shared" si="1"/>
         <v>43695</v>
       </c>
-      <c r="C91" s="11">
-        <v>10195.189293994059</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="7">
+      <c r="C92" s="11">
+        <v>9832.1780312751853</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="7">
         <f t="shared" si="1"/>
         <v>43710</v>
       </c>
-      <c r="C92" s="11">
-        <v>10257.13154989935</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="7">
+      <c r="C93" s="11">
+        <v>9875.0542816005636</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="7">
         <f t="shared" si="1"/>
         <v>43725</v>
       </c>
-      <c r="C93" s="11">
-        <v>10308.108556590167</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="7">
+      <c r="C94" s="11">
+        <v>9920.7159827126288</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="7">
         <f t="shared" si="1"/>
         <v>43740</v>
       </c>
-      <c r="C94" s="11">
-        <v>10371.658296174448</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="7">
+      <c r="C95" s="11">
+        <v>9985.3497484302734</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="7">
         <f t="shared" si="1"/>
         <v>43755</v>
       </c>
-      <c r="C95" s="11">
-        <v>10434.350392149172</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="7">
+      <c r="C96" s="11">
+        <v>10025.006974193535</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="7">
         <f t="shared" si="1"/>
         <v>43770</v>
       </c>
-      <c r="C96" s="11">
-        <v>9341.3527645135237</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="7">
+      <c r="C97" s="11">
+        <v>8992.0029195026273</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="7">
         <f t="shared" si="1"/>
         <v>43785</v>
       </c>
-      <c r="C97" s="11">
-        <v>9393.9486618169449</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="7">
+      <c r="C98" s="11">
+        <v>9033.3971636012266</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="7">
         <f t="shared" si="1"/>
         <v>43800</v>
       </c>
-      <c r="C98" s="11">
-        <v>9450.6811269883401</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="7">
+      <c r="C99" s="11">
+        <v>9078.0298892165101</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="7">
         <f t="shared" si="1"/>
         <v>43815</v>
       </c>
-      <c r="C99" s="11">
-        <v>9506.4098473993199</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="7">
+      <c r="C100" s="11">
+        <v>9135.5383282758721</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="7">
         <f t="shared" si="1"/>
         <v>43830</v>
       </c>
-      <c r="C100" s="11">
-        <v>9561.1134940095908</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="7">
+      <c r="C101" s="11">
+        <v>9152.5340991057419</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="7">
         <f t="shared" si="1"/>
         <v>43845</v>
       </c>
-      <c r="C101" s="11">
-        <v>9617.2796584632342</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="7">
+      <c r="C102" s="11">
+        <v>9202.1192548867166</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="7">
         <f t="shared" si="1"/>
         <v>43860</v>
       </c>
-      <c r="C102" s="11">
-        <v>9669.9374144549183</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="7">
+      <c r="C103" s="11">
+        <v>9240.5522821025752</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="7">
         <f t="shared" si="1"/>
         <v>43875</v>
       </c>
-      <c r="C103" s="11">
-        <v>8557.5617940236953</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="7">
+      <c r="C104" s="11">
+        <v>8082.1687969458326</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="7">
         <f t="shared" si="1"/>
         <v>43890</v>
       </c>
-      <c r="C104" s="11">
-        <v>8597.2985725366107</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="7">
+      <c r="C105" s="11">
+        <v>8135.0609589689866</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="7">
         <f t="shared" si="1"/>
         <v>43905</v>
       </c>
-      <c r="C105" s="11">
-        <v>8636.5673376261966</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="7">
+      <c r="C106" s="11">
+        <v>8160.0905235181135</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="7">
         <f t="shared" si="1"/>
         <v>43920</v>
       </c>
-      <c r="C106" s="11">
-        <v>8679.3820590264659</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="7">
+      <c r="C107" s="11">
+        <v>8185.3961271606649</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="7">
         <f t="shared" si="1"/>
         <v>43935</v>
       </c>
-      <c r="C107" s="11">
-        <v>8710.5553275939856</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="7">
+      <c r="C108" s="11">
+        <v>8251.6284200000846</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="7">
         <f t="shared" si="1"/>
         <v>43950</v>
       </c>
-      <c r="C108" s="11">
-        <v>8756.0496240582306</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="7">
+      <c r="C109" s="11">
+        <v>8299.6368797911928</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="7">
         <f t="shared" si="1"/>
         <v>43965</v>
       </c>
-      <c r="C109" s="11">
-        <v>7636.9084026198152</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="7">
+      <c r="C110" s="11">
+        <v>7137.0774842943219</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="7">
         <f t="shared" si="1"/>
         <v>43980</v>
       </c>
-      <c r="C110" s="11">
-        <v>7668.1635986464726</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="7">
+      <c r="C111" s="11">
+        <v>7167.4932205749419</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="7">
         <f t="shared" si="1"/>
         <v>43995</v>
       </c>
-      <c r="C111" s="11">
-        <v>7692.2731814856988</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="7">
+      <c r="C112" s="11">
+        <v>7188.7789242267354</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="7">
         <f t="shared" si="1"/>
         <v>44010</v>
       </c>
-      <c r="C112" s="11">
-        <v>7717.3185554426982</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="7">
+      <c r="C113" s="11">
+        <v>7215.7728182168257</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="7">
         <f t="shared" si="1"/>
         <v>44025</v>
       </c>
-      <c r="C113" s="11">
-        <v>7742.808903957145</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="7">
+      <c r="C114" s="11">
+        <v>7260.9307071675721</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="7">
         <f t="shared" si="1"/>
         <v>44040</v>
       </c>
-      <c r="C114" s="11">
-        <v>7781.6663720147517</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="7">
+      <c r="C115" s="11">
+        <v>7283.2416380928171</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="7">
         <f t="shared" si="1"/>
         <v>44055</v>
       </c>
-      <c r="C115" s="11">
-        <v>6590.2178762110707</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="7">
+      <c r="C116" s="11">
+        <v>6071.5448824129026</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="7">
         <f t="shared" si="1"/>
         <v>44070</v>
       </c>
-      <c r="C116" s="11">
-        <v>6615.546228180925</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="7">
+      <c r="C117" s="11">
+        <v>6089.0290148367994</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="7">
         <f t="shared" si="1"/>
         <v>44085</v>
       </c>
-      <c r="C117" s="11">
-        <v>6640.2007241489282</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="7">
+      <c r="C118" s="11">
+        <v>6094.1743549532248</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" s="7">
         <f t="shared" si="1"/>
         <v>44100</v>
       </c>
-      <c r="C118" s="11">
-        <v>6665.5707188789729</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="7">
+      <c r="C119" s="11">
+        <v>6109.6923692858118</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="7">
         <f t="shared" si="1"/>
         <v>44115</v>
       </c>
-      <c r="C119" s="11">
-        <v>6701.1440617482003</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="7">
+      <c r="C120" s="11">
+        <v>6130.0405644419316</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="7">
         <f t="shared" si="1"/>
         <v>44130</v>
       </c>
-      <c r="C120" s="11">
-        <v>6727.4413537023638</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="7">
+      <c r="C121" s="11">
+        <v>6145.1865460115905</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B122" s="7">
         <f t="shared" si="1"/>
         <v>44145</v>
       </c>
-      <c r="C121" s="11">
-        <v>5509.8516849750276</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="7">
+      <c r="C122" s="11">
+        <v>4925.1841088800747</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B123" s="7">
         <f t="shared" si="1"/>
         <v>44160</v>
       </c>
-      <c r="C122" s="11">
-        <v>5522.8805090898741</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="7">
+      <c r="C123" s="11">
+        <v>4934.8415444641214</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B124" s="7">
         <f t="shared" si="1"/>
         <v>44175</v>
       </c>
-      <c r="C123" s="11">
-        <v>5536.8094700984466</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="7">
+      <c r="C124" s="11">
+        <v>4958.4307774764002</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B125" s="7">
         <f t="shared" si="1"/>
         <v>44190</v>
       </c>
-      <c r="C124" s="11">
-        <v>5545.0097258534888</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="7">
+      <c r="C125" s="11">
+        <v>4967.1381009125716</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B126" s="7">
         <f t="shared" si="1"/>
         <v>44205</v>
       </c>
-      <c r="C125" s="11">
-        <v>5556.3302206718799</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="7">
+      <c r="C126" s="11">
+        <v>4983.481075139428</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B127" s="7">
         <f t="shared" si="1"/>
         <v>44220</v>
       </c>
-      <c r="C126" s="11">
-        <v>5578.4261664921059</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="7">
+      <c r="C127" s="11">
+        <v>5003.2344426593036</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="7">
         <f t="shared" si="1"/>
         <v>44235</v>
       </c>
-      <c r="C127" s="11">
-        <v>4366.5831729048987</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="7">
+      <c r="C128" s="11">
+        <v>3768.3455998669274</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="7">
         <f t="shared" si="1"/>
         <v>44250</v>
       </c>
-      <c r="C128" s="11">
-        <v>4380.5099978646376</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="7">
+      <c r="C129" s="11">
+        <v>3774.2158574825571</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="7">
         <f t="shared" si="1"/>
         <v>44265</v>
       </c>
-      <c r="C129" s="11">
-        <v>4387.2051011782005</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="7">
+      <c r="C130" s="11">
+        <v>3784.0259855485588</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B131" s="7">
         <f t="shared" si="1"/>
         <v>44280</v>
       </c>
-      <c r="C130" s="11">
-        <v>4391.6699068408816</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="7">
+      <c r="C131" s="11">
+        <v>3791.8909498651415</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="7">
         <f t="shared" si="1"/>
         <v>44295</v>
       </c>
-      <c r="C131" s="11">
-        <v>4402.1489912759453</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="7">
+      <c r="C132" s="11">
+        <v>3805.5201725748489</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="7">
         <f t="shared" si="1"/>
         <v>44310</v>
       </c>
-      <c r="C132" s="11">
-        <v>4421.3939836297441</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="7">
+      <c r="C133" s="11">
+        <v>3811.80192734</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B134" s="7">
         <f t="shared" si="1"/>
         <v>44325</v>
       </c>
-      <c r="C133" s="11">
-        <v>3215.6659565577547</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="7">
+      <c r="C134" s="11">
+        <v>2590.0283733724359</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B135" s="7">
         <f t="shared" si="1"/>
         <v>44340</v>
       </c>
-      <c r="C134" s="11">
-        <v>3217.8022071942387</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="7">
+      <c r="C135" s="11">
+        <v>2590.11159574984</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B136" s="7">
         <f t="shared" si="1"/>
         <v>44355</v>
       </c>
-      <c r="C135" s="11">
-        <v>3220.5670506764732</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="7">
+      <c r="C136" s="11">
+        <v>2590.4807231810851</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="7">
         <f t="shared" si="1"/>
         <v>44370</v>
       </c>
-      <c r="C136" s="11">
-        <v>3225.7879913325369</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="7">
+      <c r="C137" s="11">
+        <v>2590.9138036287477</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B138" s="7">
         <f t="shared" si="1"/>
         <v>44385</v>
       </c>
-      <c r="C137" s="11">
-        <v>3233.0733411677161</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="7">
+      <c r="C138" s="11">
+        <v>2590.0074762681829</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B139" s="7">
         <f t="shared" si="1"/>
         <v>44400</v>
       </c>
-      <c r="C138" s="11">
-        <v>3236.3448414148738</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="7">
+      <c r="C139" s="11">
+        <v>2589.6291159557632</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B140" s="7">
         <f t="shared" si="1"/>
         <v>44415</v>
       </c>
-      <c r="C139" s="11">
-        <v>1964.5596071714863</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="7">
+      <c r="C140" s="11">
+        <v>1313.6233734992313</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B141" s="7">
         <f t="shared" si="1"/>
         <v>44430</v>
       </c>
-      <c r="C140" s="11">
-        <v>1953.5649257090718</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="7">
+      <c r="C141" s="11">
+        <v>1306.4349546413025</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B142" s="7">
         <f t="shared" si="1"/>
         <v>44445</v>
       </c>
-      <c r="C141" s="11">
-        <v>1945.3284561957632</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="7">
+      <c r="C142" s="11">
+        <v>1299.3969859380454</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="7">
         <f t="shared" si="1"/>
         <v>44460</v>
       </c>
-      <c r="C142" s="11">
-        <v>1939.1454078403301</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="7">
+      <c r="C143" s="11">
+        <v>1291.7197761686364</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B144" s="7">
         <f t="shared" si="1"/>
         <v>44475</v>
       </c>
-      <c r="C143" s="11">
-        <v>1930.2800502392574</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="7">
+      <c r="C144" s="11">
+        <v>1283.9751288968894</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B145" s="7">
         <f t="shared" si="1"/>
         <v>44490</v>
       </c>
-      <c r="C144" s="11">
-        <v>1922.1870137945496</v>
+      <c r="C145" s="11">
+        <v>1277.3530747563336</v>
       </c>
     </row>
   </sheetData>
@@ -2683,18 +2700,18 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2708,7 +2725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2722,7 +2739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2730,13 +2747,13 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>G9</f>
-        <v>ZARSwap.08:27:53-3</v>
+        <v>ZARSwap.20:05:43-33</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
@@ -2745,12 +2762,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7">
         <v>42675</v>
@@ -2759,7 +2776,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="F7" s="7">
         <v>46327</v>
       </c>
@@ -2772,14 +2789,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>_xll.QSA.CreateHWModelDemo(C2,C3,C4,C5,C6)</f>
-        <v>HWDemo.08:27:53-4</v>
+        <v>HWDemo.20:05:43-34</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(G2,F6:F7,G6:G7,G3)</f>
-        <v>ZARSwap.08:27:53-3</v>
+        <v>ZARSwap.20:05:43-33</v>
       </c>
     </row>
   </sheetData>
